--- a/data/database/Power_WeightsRP.xlsx
+++ b/data/database/Power_WeightsRP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F202F2D0-73BC-4CE5-BCD5-7AEF1CD312AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7758BD59-6CBA-4C0E-A227-C0087474AB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5835" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="60" r:id="rId1"/>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="34">
   <si>
     <t>rp01</t>
   </si>
@@ -304,9 +304,6 @@
     <t>dataSource</t>
   </si>
   <si>
-    <t>Which package this node belongs to</t>
-  </si>
-  <si>
     <t>Where the data for the entry comes from</t>
   </si>
   <si>
@@ -323,6 +320,12 @@
   </si>
   <si>
     <t>[rp]</t>
+  </si>
+  <si>
+    <t>Scenario-dependent</t>
+  </si>
+  <si>
+    <t>Which package this belongs to</t>
   </si>
 </sst>
 </file>
@@ -896,9 +899,7 @@
     <col min="1" max="1" width="3" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="32.42578125" style="2" customWidth="1"/>
     <col min="7" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
@@ -960,10 +961,10 @@
         <v>21</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="45" x14ac:dyDescent="0.25">
@@ -974,13 +975,13 @@
         <v>18</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -988,16 +989,16 @@
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -1009,10 +1010,10 @@
         <v>20</v>
       </c>
       <c r="E8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -1024,10 +1025,10 @@
         <v>135</v>
       </c>
       <c r="E9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -1039,10 +1040,10 @@
         <v>46</v>
       </c>
       <c r="E10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -1054,10 +1055,10 @@
         <v>53</v>
       </c>
       <c r="E11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -1069,10 +1070,10 @@
         <v>53</v>
       </c>
       <c r="E12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -1084,10 +1085,10 @@
         <v>10</v>
       </c>
       <c r="E13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -1099,10 +1100,10 @@
         <v>47</v>
       </c>
       <c r="E14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1121,8 +1122,9 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection activeCell="D6" sqref="D6:F6"/>
+      <selection pane="topRight" activeCell="D6" sqref="D6:F6"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6:F6"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -1131,9 +1133,7 @@
     <col min="1" max="1" width="3" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="32.42578125" style="2" customWidth="1"/>
     <col min="7" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
@@ -1195,10 +1195,10 @@
         <v>21</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="45" x14ac:dyDescent="0.25">
@@ -1209,13 +1209,13 @@
         <v>18</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -1223,16 +1223,16 @@
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -1244,10 +1244,10 @@
         <v>20</v>
       </c>
       <c r="E8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -1259,10 +1259,10 @@
         <v>35</v>
       </c>
       <c r="E9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -1274,10 +1274,10 @@
         <v>96</v>
       </c>
       <c r="E10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -1289,10 +1289,10 @@
         <v>53</v>
       </c>
       <c r="E11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -1304,10 +1304,10 @@
         <v>33</v>
       </c>
       <c r="E12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -1319,10 +1319,10 @@
         <v>60</v>
       </c>
       <c r="E13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -1334,10 +1334,10 @@
         <v>67</v>
       </c>
       <c r="E14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1357,6 +1357,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -1502,12 +1508,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
   <ds:schemaRefs>
@@ -1517,6 +1517,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1532,20 +1548,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>